--- a/src/main/resources/excel/yinni.xlsx
+++ b/src/main/resources/excel/yinni.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,13 +77,57 @@
   </si>
   <si>
     <t>10.2.17.1</t>
+  </si>
+  <si>
+    <t>gaoye</t>
+  </si>
+  <si>
+    <t>baseServerId</t>
+  </si>
+  <si>
+    <t>isRedis</t>
+  </si>
+  <si>
+    <t>redisLocalPortAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人印尼WEB-001服</t>
+  </si>
+  <si>
+    <t>不良人印尼WEB-002服</t>
+  </si>
+  <si>
+    <t>不良人印尼WEB-003服</t>
+  </si>
+  <si>
+    <t>不良人印尼WEB-004服</t>
+  </si>
+  <si>
+    <t>不良人印尼WEB-005服</t>
+  </si>
+  <si>
+    <t>10.2.17.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.2.17.15</t>
+  </si>
+  <si>
+    <t>10.2.17.16</t>
+  </si>
+  <si>
+    <t>10.2.17.17</t>
+  </si>
+  <si>
+    <t>10.2.17.18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +153,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -156,9 +215,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,20 +530,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I7" sqref="I7:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="44.375" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +561,20 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -508,8 +587,20 @@
       <c r="D2">
         <v>38001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -522,8 +613,20 @@
       <c r="D3">
         <v>38002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -536,8 +639,20 @@
       <c r="D4">
         <v>38003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -550,8 +665,20 @@
       <c r="D5">
         <v>38004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -564,8 +691,20 @@
       <c r="D6">
         <v>38005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -578,8 +717,20 @@
       <c r="D7">
         <v>38006</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -591,6 +742,148 @@
       </c>
       <c r="D8">
         <v>38007</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>3306</v>
+      </c>
+      <c r="D9">
+        <v>38008</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>3306</v>
+      </c>
+      <c r="D10">
+        <v>38009</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>3306</v>
+      </c>
+      <c r="D11">
+        <v>38010</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>3306</v>
+      </c>
+      <c r="D12">
+        <v>38011</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>3306</v>
+      </c>
+      <c r="D13">
+        <v>38012</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
